--- a/results/randomforests.xlsx
+++ b/results/randomforests.xlsx
@@ -15,18 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
-  <si>
-    <t>mat_val</t>
-  </si>
-  <si>
-    <t>mat_tra</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+  <si>
+    <t>acc train</t>
+  </si>
+  <si>
+    <t>conf train</t>
   </si>
   <si>
     <t>acc_val</t>
   </si>
   <si>
-    <t>acc_train</t>
+    <t>conf val</t>
   </si>
   <si>
     <t>n_est</t>
@@ -50,19 +50,22 @@
     <t>bootstrap</t>
   </si>
   <si>
-    <t>[19 6; 4 19]</t>
-  </si>
-  <si>
-    <t>[87 12; 10 83]</t>
-  </si>
-  <si>
     <t>auto</t>
   </si>
   <si>
     <t>entropy</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>gini</t>
+  </si>
+  <si>
     <t>False</t>
+  </si>
+  <si>
+    <t>sqrt</t>
   </si>
 </sst>
 </file>
@@ -151,7 +154,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Tabel1" headerRowCount="1" id="1" name="Tabel1" ref="A1:A19" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:A19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="mat_val"/>
+    <tableColumn id="1" name="acc train"/>
   </tableColumns>
 </table>
 </file>
@@ -445,10 +448,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="J9" activeCellId="0" pane="topLeft" sqref="J9"/>
+      <selection activeCell="F9" activeCellId="0" pane="topLeft" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -497,37 +500,142 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+      <c r="A2" t="n">
+        <v>0.825052562532037</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.07933499162406552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8854166666666666</v>
+        <v>0.2639699331821364</v>
       </c>
       <c r="E2" t="n">
-        <v>321</v>
+        <v>500</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
         <v>8</v>
       </c>
       <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="n">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="n">
+        <v>0.8501489995742869</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2157857201214267</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8484039109039111</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09652561473534137</v>
+      </c>
+      <c r="E3" t="n">
+        <v>500</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="n">
+        <v>0.8773490239007481</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.114464199059705</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8127428127428127</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.209855669087732</v>
+      </c>
+      <c r="E4" t="n">
+        <v>926</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="n">
+        <v>0.8747837370242214</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.08425889737503095</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8035714285714285</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3113499245386195</v>
+      </c>
+      <c r="E5" t="n">
+        <v>321</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
         <v>15</v>
       </c>
     </row>
